--- a/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T11:50:06+00:00</t>
+    <t>2022-08-19T12:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T12:05:20+00:00</t>
+    <t>2022-08-19T13:26:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T13:26:06+00:00</t>
+    <t>2022-08-19T22:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T22:47:44+00:00</t>
+    <t>2022-08-19T23:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T23:18:22+00:00</t>
+    <t>2022-08-20T06:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T06:38:45+00:00</t>
+    <t>2022-08-20T21:49:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T21:49:31+00:00</t>
+    <t>2022-08-22T05:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T05:20:45+00:00</t>
+    <t>2022-08-22T05:33:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T05:33:58+00:00</t>
+    <t>2022-08-23T04:13:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T04:13:25+00:00</t>
+    <t>2022-08-23T09:39:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-as-needed-codntion-merit9-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T09:39:37+00:00</t>
+    <t>2022-08-23T11:46:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
